--- a/biology/Médecine/Syndrome_oculo-facio-cardio-dentaire/Syndrome_oculo-facio-cardio-dentaire.xlsx
+++ b/biology/Médecine/Syndrome_oculo-facio-cardio-dentaire/Syndrome_oculo-facio-cardio-dentaire.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le syndrome oculo-facio-cardio-dentaire  est une maladie génétique très rare associant des anomalies oculaires et des anomalies cardiaques. Cette maladie touche exclusivement les femmes, la mutation étant probablement létale chez le fœtus mâle.
 </t>
@@ -511,7 +523,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Mutation du gène BCL6 situé au niveau du locus p11.4 du chromosome X.
 </t>
@@ -542,7 +556,9 @@
           <t>Incidence</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Inconnue mais très rare
 </t>
@@ -573,7 +589,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Le syndrome comprend
 Des anomalies oculaires
@@ -616,7 +634,9 @@
           <t>Mode de transmission</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Transmission dominante liée à l’X
 </t>
@@ -647,7 +667,9 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Site en anglais Incontournable pour les maladies génétiques
  Portail de la médecine                     </t>
